--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -37,6 +37,12 @@
     <t>POLS 1101</t>
   </si>
   <si>
+    <t>PSYC 1101</t>
+  </si>
+  <si>
+    <t>KINS 1105</t>
+  </si>
+  <si>
     <t>Fall 2023</t>
   </si>
   <si>
@@ -46,51 +52,108 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>CPSC 1301K</t>
-  </si>
-  <si>
-    <t>CPSC 1302</t>
-  </si>
-  <si>
-    <t>CPSC 2108</t>
-  </si>
-  <si>
-    <t>CYBR 2159</t>
-  </si>
-  <si>
-    <t>CYBR 2160</t>
-  </si>
-  <si>
-    <t>CYBR 3106</t>
-  </si>
-  <si>
-    <t>CYBR 3108</t>
+    <t>PSYC 1105</t>
+  </si>
+  <si>
+    <t>KINS 1106</t>
+  </si>
+  <si>
+    <t>KINS 2105</t>
+  </si>
+  <si>
+    <t>KINS 2135</t>
+  </si>
+  <si>
+    <t>KINS 2271</t>
+  </si>
+  <si>
+    <t>KINS 2272</t>
+  </si>
+  <si>
+    <t>KINS 2345</t>
+  </si>
+  <si>
+    <t>KINS 2379</t>
+  </si>
+  <si>
+    <t>KINS 3105</t>
+  </si>
+  <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
+  </si>
+  <si>
+    <t>KINS 3107</t>
   </si>
   <si>
     <t>DSCI 3111</t>
   </si>
   <si>
-    <t>CYBR 3115</t>
-  </si>
-  <si>
-    <t>CYBR 3119</t>
-  </si>
-  <si>
     <t>CPSC 3121</t>
   </si>
   <si>
+    <t>KINS 3126</t>
+  </si>
+  <si>
+    <t>KINS 3127</t>
+  </si>
+  <si>
     <t>CPSC 3165</t>
   </si>
   <si>
-    <t>CPSC 4111</t>
-  </si>
-  <si>
-    <t>CPSC 4115</t>
+    <t>KINS 3165</t>
+  </si>
+  <si>
+    <t>KINS 3218</t>
+  </si>
+  <si>
+    <t>KINS 3235</t>
+  </si>
+  <si>
+    <t>KINS 3255</t>
+  </si>
+  <si>
+    <t>KINS 3256</t>
+  </si>
+  <si>
+    <t>KINS 3257</t>
+  </si>
+  <si>
+    <t>KINS 3258</t>
+  </si>
+  <si>
+    <t>KINS 3316</t>
+  </si>
+  <si>
+    <t>KINS 3365</t>
+  </si>
+  <si>
+    <t>CPSC 3415</t>
+  </si>
+  <si>
+    <t>CYBR 4125</t>
+  </si>
+  <si>
+    <t>Fall 2025</t>
+  </si>
+  <si>
+    <t>Spring 2025</t>
+  </si>
+  <si>
+    <t>Summer 2025</t>
   </si>
   <si>
     <t>CPSC 4135</t>
   </si>
   <si>
+    <t>CYBR 4145</t>
+  </si>
+  <si>
     <t>CPSC 4148</t>
   </si>
   <si>
@@ -100,28 +163,25 @@
     <t>CPSC 4157</t>
   </si>
   <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
-  </si>
-  <si>
     <t>CPSC 4175</t>
   </si>
   <si>
     <t>CPSC 4176</t>
   </si>
   <si>
-    <t>CPSC 6180</t>
-  </si>
-  <si>
-    <t>CPSC 6185</t>
-  </si>
-  <si>
-    <t>CPSC 6985</t>
+    <t>CPSC 4205</t>
+  </si>
+  <si>
+    <t>CYBR 4416</t>
+  </si>
+  <si>
+    <t>CPSC 4555</t>
+  </si>
+  <si>
+    <t>CPSC 4698</t>
+  </si>
+  <si>
+    <t>CPSC 4899</t>
   </si>
   <si>
     <t>CPSC 4000</t>
@@ -467,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A2:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,13 +576,13 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -530,70 +590,104 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -621,19 +715,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -641,77 +735,105 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
     </row>
@@ -740,19 +862,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>
@@ -760,9 +882,65 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26">
         <v>3</v>
       </c>
     </row>
@@ -786,6 +964,49 @@
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <f>SUM(B31:B37)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D31:D37)</f>
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <f>SUM(F31:F37)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,49 +34,43 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>Fall 2023</t>
+  </si>
+  <si>
+    <t>Spring 2023</t>
+  </si>
+  <si>
+    <t>Summer 2023</t>
+  </si>
+  <si>
+    <t>FINC 1100</t>
+  </si>
+  <si>
     <t>POLS 1101</t>
   </si>
   <si>
-    <t>PSYC 1101</t>
-  </si>
-  <si>
-    <t>KINS 1105</t>
-  </si>
-  <si>
-    <t>Fall 2023</t>
-  </si>
-  <si>
-    <t>Spring 2023</t>
-  </si>
-  <si>
-    <t>Summer 2023</t>
-  </si>
-  <si>
-    <t>PSYC 1105</t>
-  </si>
-  <si>
-    <t>KINS 1106</t>
-  </si>
-  <si>
-    <t>KINS 2105</t>
-  </si>
-  <si>
-    <t>KINS 2135</t>
-  </si>
-  <si>
-    <t>KINS 2271</t>
-  </si>
-  <si>
-    <t>KINS 2272</t>
-  </si>
-  <si>
-    <t>KINS 2345</t>
-  </si>
-  <si>
-    <t>KINS 2379</t>
-  </si>
-  <si>
-    <t>KINS 3105</t>
+    <t>DSCI 3111</t>
+  </si>
+  <si>
+    <t>CPSC 3121</t>
+  </si>
+  <si>
+    <t>CPSC 3165</t>
+  </si>
+  <si>
+    <t>CPSC 3415</t>
+  </si>
+  <si>
+    <t>CPSC 4135</t>
+  </si>
+  <si>
+    <t>CPSC 4148</t>
+  </si>
+  <si>
+    <t>CPSC 4155</t>
+  </si>
+  <si>
+    <t>CPSC 4157</t>
   </si>
   <si>
     <t>Fall 2024</t>
@@ -88,81 +82,6 @@
     <t>Summer 2024</t>
   </si>
   <si>
-    <t>KINS 3107</t>
-  </si>
-  <si>
-    <t>DSCI 3111</t>
-  </si>
-  <si>
-    <t>CPSC 3121</t>
-  </si>
-  <si>
-    <t>KINS 3126</t>
-  </si>
-  <si>
-    <t>KINS 3127</t>
-  </si>
-  <si>
-    <t>CPSC 3165</t>
-  </si>
-  <si>
-    <t>KINS 3165</t>
-  </si>
-  <si>
-    <t>KINS 3218</t>
-  </si>
-  <si>
-    <t>KINS 3235</t>
-  </si>
-  <si>
-    <t>KINS 3255</t>
-  </si>
-  <si>
-    <t>KINS 3256</t>
-  </si>
-  <si>
-    <t>KINS 3257</t>
-  </si>
-  <si>
-    <t>KINS 3258</t>
-  </si>
-  <si>
-    <t>KINS 3316</t>
-  </si>
-  <si>
-    <t>KINS 3365</t>
-  </si>
-  <si>
-    <t>CPSC 3415</t>
-  </si>
-  <si>
-    <t>CYBR 4125</t>
-  </si>
-  <si>
-    <t>Fall 2025</t>
-  </si>
-  <si>
-    <t>Spring 2025</t>
-  </si>
-  <si>
-    <t>Summer 2025</t>
-  </si>
-  <si>
-    <t>CPSC 4135</t>
-  </si>
-  <si>
-    <t>CYBR 4145</t>
-  </si>
-  <si>
-    <t>CPSC 4148</t>
-  </si>
-  <si>
-    <t>CPSC 4155</t>
-  </si>
-  <si>
-    <t>CPSC 4157</t>
-  </si>
-  <si>
     <t>CPSC 4175</t>
   </si>
   <si>
@@ -170,15 +89,6 @@
   </si>
   <si>
     <t>CPSC 4205</t>
-  </si>
-  <si>
-    <t>CYBR 4416</t>
-  </si>
-  <si>
-    <t>CPSC 4555</t>
-  </si>
-  <si>
-    <t>CPSC 4698</t>
   </si>
   <si>
     <t>CPSC 4899</t>
@@ -527,7 +437,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F38"/>
+  <dimension ref="A2:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,80 +462,38 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -633,19 +501,16 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -653,41 +518,44 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -698,315 +566,147 @@
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <f>SUM(D4:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <f>SUM(F4:F10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
+        <f>SUM(D6:D12)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="C19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
+        <f>SUM(F8:F14)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <f>SUM(B13:B19)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20">
-        <f>SUM(D13:D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <f>SUM(F13:F19)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="B21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <f>SUM(B22:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <f>SUM(D22:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <f>SUM(F22:F28)</f>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <f>SUM(B21:B27)</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
       <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38">
-        <f>SUM(B31:B37)</f>
-        <v>0</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <f>SUM(D31:D37)</f>
-        <v>0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <f>SUM(F31:F37)</f>
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <f>SUM(D23:D29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="E32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <f>SUM(F25:F31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="F43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <f>SUM(B38:B44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <f>SUM(D40:D46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <f>SUM(F42:F48)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
+    <t>394728739813</t>
+  </si>
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,6 +40,9 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>POLS 1101</t>
+  </si>
+  <si>
     <t>Fall 2023</t>
   </si>
   <si>
@@ -43,21 +52,30 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>FINC 1100</t>
-  </si>
-  <si>
-    <t>POLS 1101</t>
-  </si>
-  <si>
     <t>DSCI 3111</t>
   </si>
   <si>
+    <t>ARTH 3120</t>
+  </si>
+  <si>
     <t>CPSC 3121</t>
   </si>
   <si>
+    <t>ARTH 3126</t>
+  </si>
+  <si>
     <t>CPSC 3165</t>
   </si>
   <si>
+    <t>Fall 2024</t>
+  </si>
+  <si>
+    <t>Spring 2024</t>
+  </si>
+  <si>
+    <t>Summer 2024</t>
+  </si>
+  <si>
     <t>CPSC 3415</t>
   </si>
   <si>
@@ -73,15 +91,6 @@
     <t>CPSC 4157</t>
   </si>
   <si>
-    <t>Fall 2024</t>
-  </si>
-  <si>
-    <t>Spring 2024</t>
-  </si>
-  <si>
-    <t>Summer 2024</t>
-  </si>
-  <si>
     <t>CPSC 4175</t>
   </si>
   <si>
@@ -91,7 +100,7 @@
     <t>CPSC 4205</t>
   </si>
   <si>
-    <t>CPSC 4899</t>
+    <t>CYBR 4416</t>
   </si>
   <si>
     <t>CPSC 4000</t>
@@ -437,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F49"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,9 +457,17 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -460,253 +477,242 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D4:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F4:F10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <f>SUM(D6:D12)</f>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <f>SUM(F8:F14)</f>
-        <v>0</v>
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <f>SUM(B13:B19)</f>
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D13:D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f>SUM(F13:F19)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <f>SUM(B21:B27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <f>SUM(D23:D29)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="E32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32">
-        <f>SUM(F25:F31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="B39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="F43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <f>SUM(B38:B44)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <f>SUM(D40:D46)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <f>SUM(F42:F48)</f>
+      <c r="F21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B22:B28)</f>
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D22:D28)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f>SUM(F22:F28)</f>
         <v>0</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
-  <si>
-    <t>Philip</t>
-  </si>
-  <si>
-    <t>394728739813</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -55,18 +49,30 @@
     <t>DSCI 3111</t>
   </si>
   <si>
-    <t>ARTH 3120</t>
+    <t>ARTH 3115</t>
+  </si>
+  <si>
+    <t>ARTH 3119</t>
   </si>
   <si>
     <t>CPSC 3121</t>
   </si>
   <si>
-    <t>ARTH 3126</t>
-  </si>
-  <si>
     <t>CPSC 3165</t>
   </si>
   <si>
+    <t>CPSC 3415</t>
+  </si>
+  <si>
+    <t>CPSC 4135</t>
+  </si>
+  <si>
+    <t>CPSC 4148</t>
+  </si>
+  <si>
+    <t>CPSC 4155</t>
+  </si>
+  <si>
     <t>Fall 2024</t>
   </si>
   <si>
@@ -76,18 +82,6 @@
     <t>Summer 2024</t>
   </si>
   <si>
-    <t>CPSC 3415</t>
-  </si>
-  <si>
-    <t>CPSC 4135</t>
-  </si>
-  <si>
-    <t>CPSC 4148</t>
-  </si>
-  <si>
-    <t>CPSC 4155</t>
-  </si>
-  <si>
     <t>CPSC 4157</t>
   </si>
   <si>
@@ -101,6 +95,9 @@
   </si>
   <si>
     <t>CYBR 4416</t>
+  </si>
+  <si>
+    <t>CPSC 4698</t>
   </si>
   <si>
     <t>CPSC 4000</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A2:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,17 +454,9 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -477,27 +466,27 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -509,7 +498,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -517,7 +506,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -526,18 +515,12 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -551,29 +534,63 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
@@ -582,91 +599,71 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <f>SUM(B13:B19)</f>
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
@@ -675,41 +672,41 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <f>SUM(B22:B28)</f>
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <f>SUM(D22:D28)</f>
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,27 +34,24 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>Fall 2023</t>
+  </si>
+  <si>
+    <t>Spring 2023</t>
+  </si>
+  <si>
+    <t>Summer 2023</t>
+  </si>
+  <si>
+    <t>GEOL 1011K</t>
+  </si>
+  <si>
     <t>POLS 1101</t>
   </si>
   <si>
-    <t>Fall 2023</t>
-  </si>
-  <si>
-    <t>Spring 2023</t>
-  </si>
-  <si>
-    <t>Summer 2023</t>
-  </si>
-  <si>
     <t>DSCI 3111</t>
   </si>
   <si>
-    <t>ARTH 3115</t>
-  </si>
-  <si>
-    <t>ARTH 3119</t>
-  </si>
-  <si>
     <t>CPSC 3121</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
     <t>CPSC 4135</t>
   </si>
   <si>
+    <t>CYBR 4145</t>
+  </si>
+  <si>
     <t>CPSC 4148</t>
   </si>
   <si>
@@ -91,13 +91,7 @@
     <t>CPSC 4176</t>
   </si>
   <si>
-    <t>CPSC 4205</t>
-  </si>
-  <si>
-    <t>CYBR 4416</t>
-  </si>
-  <si>
-    <t>CPSC 4698</t>
+    <t>CPSC 4899</t>
   </si>
   <si>
     <t>CPSC 4000</t>
@@ -486,19 +480,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -515,7 +509,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -548,10 +542,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -562,16 +556,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -599,19 +587,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
         <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
       </c>
       <c r="F12" t="s">
         <v>3</v>
@@ -636,14 +624,6 @@
         <v>23</v>
       </c>
       <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
         <v>3</v>
       </c>
     </row>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -43,7 +43,7 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>GEOL 1011K</t>
+    <t>FINC 1100</t>
   </si>
   <si>
     <t>POLS 1101</t>
@@ -55,18 +55,24 @@
     <t>CPSC 3121</t>
   </si>
   <si>
+    <t>FINC 3145</t>
+  </si>
+  <si>
     <t>CPSC 3165</t>
   </si>
   <si>
     <t>CPSC 3415</t>
   </si>
   <si>
+    <t>CPSC 4000</t>
+  </si>
+  <si>
+    <t>CYBR 4125</t>
+  </si>
+  <si>
     <t>CPSC 4135</t>
   </si>
   <si>
-    <t>CYBR 4145</t>
-  </si>
-  <si>
     <t>CPSC 4148</t>
   </si>
   <si>
@@ -91,10 +97,7 @@
     <t>CPSC 4176</t>
   </si>
   <si>
-    <t>CPSC 4899</t>
-  </si>
-  <si>
-    <t>CPSC 4000</t>
+    <t>CYBR 4416</t>
   </si>
 </sst>
 </file>
@@ -483,18 +486,12 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4">
         <v>3</v>
       </c>
     </row>
@@ -509,7 +506,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -520,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -534,7 +531,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -542,13 +539,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -556,10 +553,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -607,13 +610,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -621,9 +624,17 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
         <v>3</v>
       </c>
     </row>
@@ -652,19 +663,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
         <v>3</v>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>password1</t>
+  </si>
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -46,7 +52,7 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>GEOL 1110</t>
+    <t>STAT 1401</t>
   </si>
   <si>
     <t>DSCI 3111</t>
@@ -58,9 +64,6 @@
     <t>CPSC 3165</t>
   </si>
   <si>
-    <t>CPSC 3415</t>
-  </si>
-  <si>
     <t>CPSC 4000</t>
   </si>
   <si>
@@ -70,6 +73,9 @@
     <t>CPSC 4135</t>
   </si>
   <si>
+    <t>CYBR 4145</t>
+  </si>
+  <si>
     <t>CPSC 4148</t>
   </si>
   <si>
@@ -92,6 +98,9 @@
   </si>
   <si>
     <t>CPSC 4176</t>
+  </si>
+  <si>
+    <t>CPSC 4205</t>
   </si>
 </sst>
 </file>
@@ -434,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,9 +454,17 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -457,47 +474,47 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -505,13 +522,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -519,13 +536,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -533,13 +550,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -547,7 +564,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -555,21 +572,21 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
@@ -578,33 +595,33 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -612,29 +629,37 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <f>SUM(B13:B19)</f>
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
@@ -643,41 +668,41 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <f>SUM(B22:B28)</f>
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <f>SUM(D22:D28)</f>
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>

--- a/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
+++ b/SmartPlannerApp/ExcelFiles/Path to Graduation 3.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+  <si>
+    <t>dadaw</t>
+  </si>
+  <si>
+    <t>32423</t>
+  </si>
   <si>
     <t>Path To Graduation</t>
   </si>
@@ -34,6 +40,12 @@
     <t>Summer 2022</t>
   </si>
   <si>
+    <t>PSYC 1101</t>
+  </si>
+  <si>
+    <t>POLS 1101</t>
+  </si>
+  <si>
     <t>Fall 2023</t>
   </si>
   <si>
@@ -43,10 +55,7 @@
     <t>Summer 2023</t>
   </si>
   <si>
-    <t>FINC 1100</t>
-  </si>
-  <si>
-    <t>POLS 1101</t>
+    <t>PSYC 1105</t>
   </si>
   <si>
     <t>DSCI 3111</t>
@@ -55,9 +64,6 @@
     <t>CPSC 3121</t>
   </si>
   <si>
-    <t>FINC 3145</t>
-  </si>
-  <si>
     <t>CPSC 3165</t>
   </si>
   <si>
@@ -67,12 +73,12 @@
     <t>CPSC 4000</t>
   </si>
   <si>
-    <t>CYBR 4125</t>
-  </si>
-  <si>
     <t>CPSC 4135</t>
   </si>
   <si>
+    <t>CYBR 4145</t>
+  </si>
+  <si>
     <t>CPSC 4148</t>
   </si>
   <si>
@@ -97,7 +103,7 @@
     <t>CPSC 4176</t>
   </si>
   <si>
-    <t>CYBR 4416</t>
+    <t>CPSC 4698</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,9 +457,17 @@
     <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -463,61 +477,67 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -525,13 +545,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -539,13 +559,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -553,35 +573,37 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <f>SUM(B4:B10)</f>
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <f>SUM(D4:D10)</f>
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f>SUM(F4:F10)</f>
@@ -590,33 +612,33 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -624,37 +646,29 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <f>SUM(B13:B19)</f>
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <f>SUM(D13:D19)</f>
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <f>SUM(F13:F19)</f>
@@ -663,41 +677,41 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <f>SUM(B22:B28)</f>
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <f>SUM(D22:D28)</f>
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29">
         <f>SUM(F22:F28)</f>
